--- a/output/article/Supp-mat1c_taxa_area.xlsx
+++ b/output/article/Supp-mat1c_taxa_area.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Northeast Atlantic</t>
+    <t xml:space="preserve">Central North Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">Baleen whales</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">As</t>
   </si>
   <si>
-    <t xml:space="preserve">Central North Atlantic</t>
+    <t xml:space="preserve">Northeast Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">Gulf of Alaska</t>
@@ -509,28 +509,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>31348.5674672831</v>
+        <v>73800.7036636472</v>
       </c>
       <c r="E2" t="n">
-        <v>62481.3946142455</v>
+        <v>133311.161031641</v>
       </c>
       <c r="F2" t="n">
-        <v>140531.882210402</v>
+        <v>257770.226467143</v>
       </c>
       <c r="G2" t="n">
-        <v>130917.998996826</v>
+        <v>243838.054531673</v>
       </c>
       <c r="H2" t="n">
-        <v>277582.909366562</v>
+        <v>466227.852148357</v>
       </c>
       <c r="I2" t="n">
-        <v>678537.135223295</v>
+        <v>1371074.32432904</v>
       </c>
       <c r="J2" t="n">
-        <v>263190.682848923</v>
+        <v>424790.109327341</v>
       </c>
       <c r="K2" t="n">
-        <v>0.533954624416055</v>
+        <v>0.606817863239153</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -547,28 +547,28 @@
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>16079.9860267862</v>
+        <v>45036.6679319129</v>
       </c>
       <c r="E3" t="n">
-        <v>24342.3167179523</v>
+        <v>77645.7965583855</v>
       </c>
       <c r="F3" t="n">
-        <v>45649.911832701</v>
+        <v>147728.817122451</v>
       </c>
       <c r="G3" t="n">
-        <v>42951.6243533242</v>
+        <v>140252.130252473</v>
       </c>
       <c r="H3" t="n">
-        <v>82552.6019844531</v>
+        <v>263017.223872435</v>
       </c>
       <c r="I3" t="n">
-        <v>149661.722937752</v>
+        <v>519478.990698252</v>
       </c>
       <c r="J3" t="n">
-        <v>263190.682848923</v>
+        <v>424790.109327341</v>
       </c>
       <c r="K3" t="n">
-        <v>0.173448054234143</v>
+        <v>0.34776896608158</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -585,28 +585,28 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>28993.658635189</v>
+        <v>4142.32586437807</v>
       </c>
       <c r="E4" t="n">
-        <v>51015.8780506557</v>
+        <v>8047.11472739321</v>
       </c>
       <c r="F4" t="n">
-        <v>77008.8888058204</v>
+        <v>19291.065737747</v>
       </c>
       <c r="G4" t="n">
-        <v>74914.80325425</v>
+        <v>17750.3026888308</v>
       </c>
       <c r="H4" t="n">
-        <v>113849.396072585</v>
+        <v>39622.4250490648</v>
       </c>
       <c r="I4" t="n">
-        <v>198670.155877895</v>
+        <v>80030.6460706342</v>
       </c>
       <c r="J4" t="n">
-        <v>263190.682848923</v>
+        <v>424790.109327341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.292597321349803</v>
+        <v>0.0454131706792669</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -623,28 +623,28 @@
         <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>3273.00759524082</v>
+        <v>6664.47124369142</v>
       </c>
       <c r="E5" t="n">
-        <v>6715.84574919001</v>
+        <v>14211.2944933744</v>
       </c>
       <c r="F5" t="n">
-        <v>14579.7440254629</v>
+        <v>27345.061627259</v>
       </c>
       <c r="G5" t="n">
-        <v>13614.023741886</v>
+        <v>26017.3561610382</v>
       </c>
       <c r="H5" t="n">
-        <v>28479.9129126315</v>
+        <v>48501.5523278148</v>
       </c>
       <c r="I5" t="n">
-        <v>75399.1384935159</v>
+        <v>120997.000387249</v>
       </c>
       <c r="J5" t="n">
-        <v>28081.4603354355</v>
+        <v>42615.473019633</v>
       </c>
       <c r="K5" t="n">
-        <v>0.519194651962775</v>
+        <v>0.641669790093872</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -661,28 +661,28 @@
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>1189.71931360359</v>
+        <v>3487.31974701425</v>
       </c>
       <c r="E6" t="n">
-        <v>2082.99080950909</v>
+        <v>6734.01109683064</v>
       </c>
       <c r="F6" t="n">
-        <v>3953.36580577989</v>
+        <v>12880.3984517847</v>
       </c>
       <c r="G6" t="n">
-        <v>3715.86857104909</v>
+        <v>12239.4716289256</v>
       </c>
       <c r="H6" t="n">
-        <v>7148.36396777509</v>
+        <v>22865.8741935458</v>
       </c>
       <c r="I6" t="n">
-        <v>14234.073627815</v>
+        <v>42671.1249092099</v>
       </c>
       <c r="J6" t="n">
-        <v>28081.4603354355</v>
+        <v>42615.473019633</v>
       </c>
       <c r="K6" t="n">
-        <v>0.140782059001084</v>
+        <v>0.302246990097956</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -699,28 +699,28 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>4042.47237670937</v>
+        <v>426.316318325827</v>
       </c>
       <c r="E7" t="n">
-        <v>6016.88620918058</v>
+        <v>895.561522774901</v>
       </c>
       <c r="F7" t="n">
-        <v>9548.35050419273</v>
+        <v>2390.01294058931</v>
       </c>
       <c r="G7" t="n">
-        <v>9252.67472231841</v>
+        <v>2142.20843128957</v>
       </c>
       <c r="H7" t="n">
-        <v>14751.8867698068</v>
+        <v>5235.46454760413</v>
       </c>
       <c r="I7" t="n">
-        <v>22482.789057143</v>
+        <v>14373.3001665032</v>
       </c>
       <c r="J7" t="n">
-        <v>28081.4603354355</v>
+        <v>42615.473019633</v>
       </c>
       <c r="K7" t="n">
-        <v>0.340023289036141</v>
+        <v>0.0560832198081722</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -737,28 +737,28 @@
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>14.7249962499931</v>
+        <v>31.0706745108488</v>
       </c>
       <c r="E8" t="n">
-        <v>35.364754665472</v>
+        <v>74.4429955516984</v>
       </c>
       <c r="F8" t="n">
-        <v>100.440237494258</v>
+        <v>187.187359131091</v>
       </c>
       <c r="G8" t="n">
-        <v>91.3082159479098</v>
+        <v>174.902142094069</v>
       </c>
       <c r="H8" t="n">
-        <v>216.593390442765</v>
+        <v>375.647595913906</v>
       </c>
       <c r="I8" t="n">
-        <v>481.911280692552</v>
+        <v>770.335364610495</v>
       </c>
       <c r="J8" t="n">
-        <v>189.509931588921</v>
+        <v>289.412655531811</v>
       </c>
       <c r="K8" t="n">
-        <v>0.529999861496073</v>
+        <v>0.646783599656775</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -775,28 +775,28 @@
         <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>3.97439689772188</v>
+        <v>10.3444194119351</v>
       </c>
       <c r="E9" t="n">
-        <v>7.75082992709319</v>
+        <v>26.6847384985026</v>
       </c>
       <c r="F9" t="n">
-        <v>27.7060256217529</v>
+        <v>90.9636195325554</v>
       </c>
       <c r="G9" t="n">
-        <v>21.3750653276604</v>
+        <v>73.1276979277586</v>
       </c>
       <c r="H9" t="n">
-        <v>82.0418225148736</v>
+        <v>249.924052289649</v>
       </c>
       <c r="I9" t="n">
-        <v>200.617029133678</v>
+        <v>574.239254512656</v>
       </c>
       <c r="J9" t="n">
-        <v>189.509931588921</v>
+        <v>289.412655531811</v>
       </c>
       <c r="K9" t="n">
-        <v>0.14619827778658</v>
+        <v>0.314304221995424</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -813,28 +813,28 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>18.2588585670749</v>
+        <v>1.63139830768301</v>
       </c>
       <c r="E10" t="n">
-        <v>31.0296084256711</v>
+        <v>3.7237879960876</v>
       </c>
       <c r="F10" t="n">
-        <v>61.3636684729096</v>
+        <v>11.2616768681647</v>
       </c>
       <c r="G10" t="n">
-        <v>58.4766083675203</v>
+        <v>9.79812766912163</v>
       </c>
       <c r="H10" t="n">
-        <v>107.541528887762</v>
+        <v>27.5738648697182</v>
       </c>
       <c r="I10" t="n">
-        <v>171.05806015824</v>
+        <v>93.6950721409299</v>
       </c>
       <c r="J10" t="n">
-        <v>189.509931588921</v>
+        <v>289.412655531811</v>
       </c>
       <c r="K10" t="n">
-        <v>0.323801860717347</v>
+        <v>0.0389121783478017</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -851,28 +851,28 @@
         <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>2.15323348240575</v>
+        <v>4.91132484268978</v>
       </c>
       <c r="E11" t="n">
-        <v>6.72174590456064</v>
+        <v>12.7273736573466</v>
       </c>
       <c r="F11" t="n">
-        <v>25.5265312430685</v>
+        <v>43.5635610872204</v>
       </c>
       <c r="G11" t="n">
-        <v>22.6309494445615</v>
+        <v>39.334394602225</v>
       </c>
       <c r="H11" t="n">
-        <v>61.1810046594392</v>
+        <v>96.8244301724243</v>
       </c>
       <c r="I11" t="n">
-        <v>186.174436659413</v>
+        <v>267.32390115676</v>
       </c>
       <c r="J11" t="n">
-        <v>55.7159791059708</v>
+        <v>117.829417977174</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45815458424445</v>
+        <v>0.369717188076576</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
@@ -889,28 +889,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>5.31614151680444</v>
+        <v>14.8011808953116</v>
       </c>
       <c r="E12" t="n">
-        <v>8.96761991838818</v>
+        <v>30.0919489262042</v>
       </c>
       <c r="F12" t="n">
-        <v>22.3166983237734</v>
+        <v>73.4200423908886</v>
       </c>
       <c r="G12" t="n">
-        <v>20.1357273925546</v>
+        <v>67.2153808323509</v>
       </c>
       <c r="H12" t="n">
-        <v>48.7310103656943</v>
+        <v>150.929089796856</v>
       </c>
       <c r="I12" t="n">
-        <v>107.997744512428</v>
+        <v>436.618321294313</v>
       </c>
       <c r="J12" t="n">
-        <v>55.7159791059708</v>
+        <v>117.829417977174</v>
       </c>
       <c r="K12" t="n">
-        <v>0.400543949543227</v>
+        <v>0.623104515420007</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -927,28 +927,28 @@
         <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>2.20496611013475</v>
+        <v>0.151606146093451</v>
       </c>
       <c r="E13" t="n">
-        <v>3.85988967082343</v>
+        <v>0.314647786490862</v>
       </c>
       <c r="F13" t="n">
-        <v>7.87274953912884</v>
+        <v>0.845814499065174</v>
       </c>
       <c r="G13" t="n">
-        <v>7.34722008095861</v>
+        <v>0.753426141929563</v>
       </c>
       <c r="H13" t="n">
-        <v>14.8856665058557</v>
+        <v>1.92953888871402</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7494065107136</v>
+        <v>5.8299717519474</v>
       </c>
       <c r="J13" t="n">
-        <v>55.7159791059708</v>
+        <v>117.829417977174</v>
       </c>
       <c r="K13" t="n">
-        <v>0.141301466212323</v>
+        <v>0.0071782965034167</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
@@ -965,28 +965,28 @@
         <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>0.294600174354255</v>
+        <v>0.848502024295567</v>
       </c>
       <c r="E14" t="n">
-        <v>1.03488590584514</v>
+        <v>2.05172064470894</v>
       </c>
       <c r="F14" t="n">
-        <v>3.11673579430496</v>
+        <v>6.05275634289958</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86552407765207</v>
+        <v>5.54872653819021</v>
       </c>
       <c r="H14" t="n">
-        <v>6.70945017844107</v>
+        <v>12.8008406382214</v>
       </c>
       <c r="I14" t="n">
-        <v>13.5428419310425</v>
+        <v>28.0745182438048</v>
       </c>
       <c r="J14" t="n">
-        <v>6.57223408591992</v>
+        <v>9.32189721493088</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474227751714158</v>
+        <v>0.649305200791624</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
@@ -1003,28 +1003,28 @@
         <v>21</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196971132685042</v>
+        <v>0.627777106129543</v>
       </c>
       <c r="E15" t="n">
-        <v>0.366928480410988</v>
+        <v>1.20378371349211</v>
       </c>
       <c r="F15" t="n">
-        <v>0.782828287671288</v>
+        <v>2.67848008612031</v>
       </c>
       <c r="G15" t="n">
-        <v>0.712385215242529</v>
+        <v>2.47325045348622</v>
       </c>
       <c r="H15" t="n">
-        <v>1.61032737946342</v>
+        <v>5.36614122289849</v>
       </c>
       <c r="I15" t="n">
-        <v>3.28894176198736</v>
+        <v>13.2730401242038</v>
       </c>
       <c r="J15" t="n">
-        <v>6.57223408591992</v>
+        <v>9.32189721493088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.119111443298769</v>
+        <v>0.287332076761175</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
@@ -1041,28 +1041,28 @@
         <v>21</v>
       </c>
       <c r="D16" t="n">
-        <v>0.560130584609778</v>
+        <v>0.0753961654163235</v>
       </c>
       <c r="E16" t="n">
-        <v>1.07427106301039</v>
+        <v>0.169063717617297</v>
       </c>
       <c r="F16" t="n">
-        <v>2.67267000394368</v>
+        <v>0.590660785910997</v>
       </c>
       <c r="G16" t="n">
-        <v>2.39780329023742</v>
+        <v>0.507498844543736</v>
       </c>
       <c r="H16" t="n">
-        <v>5.64293451902915</v>
+        <v>1.51845813546085</v>
       </c>
       <c r="I16" t="n">
-        <v>10.1695565830997</v>
+        <v>4.12323529203958</v>
       </c>
       <c r="J16" t="n">
-        <v>6.57223408591992</v>
+        <v>9.32189721493088</v>
       </c>
       <c r="K16" t="n">
-        <v>0.406660804987073</v>
+        <v>0.0633627224472005</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
@@ -1079,28 +1079,28 @@
         <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>0.602888612005335</v>
+        <v>1.4371598972943</v>
       </c>
       <c r="E17" t="n">
-        <v>1.35176045597077</v>
+        <v>2.79979873146447</v>
       </c>
       <c r="F17" t="n">
-        <v>4.0809347707542</v>
+        <v>7.51520392645367</v>
       </c>
       <c r="G17" t="n">
-        <v>3.69114984063146</v>
+        <v>6.91590121473379</v>
       </c>
       <c r="H17" t="n">
-        <v>9.11500132903954</v>
+        <v>15.247896921364</v>
       </c>
       <c r="I17" t="n">
-        <v>20.879969519778</v>
+        <v>52.9626862898159</v>
       </c>
       <c r="J17" t="n">
-        <v>7.44187701756375</v>
+        <v>12.0544735052699</v>
       </c>
       <c r="K17" t="n">
-        <v>0.548374390106514</v>
+        <v>0.623436927640864</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
@@ -1117,28 +1117,28 @@
         <v>22</v>
       </c>
       <c r="D18" t="n">
-        <v>0.259455623760236</v>
+        <v>1.08257913678541</v>
       </c>
       <c r="E18" t="n">
-        <v>0.59187321426074</v>
+        <v>1.91276282622576</v>
       </c>
       <c r="F18" t="n">
-        <v>1.24108498816225</v>
+        <v>4.07791595714794</v>
       </c>
       <c r="G18" t="n">
-        <v>1.14273187799155</v>
+        <v>3.78912944228417</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44822409124576</v>
+        <v>7.79360678533933</v>
       </c>
       <c r="I18" t="n">
-        <v>4.84496551712718</v>
+        <v>15.7956106294783</v>
       </c>
       <c r="J18" t="n">
-        <v>7.44187701756375</v>
+        <v>12.0544735052699</v>
       </c>
       <c r="K18" t="n">
-        <v>0.166770424347666</v>
+        <v>0.338290673198226</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
@@ -1155,28 +1155,28 @@
         <v>22</v>
       </c>
       <c r="D19" t="n">
-        <v>0.678701712112175</v>
+        <v>0.0669814767542231</v>
       </c>
       <c r="E19" t="n">
-        <v>1.07036099855137</v>
+        <v>0.17612458086947</v>
       </c>
       <c r="F19" t="n">
-        <v>2.11985725864729</v>
+        <v>0.461353621668308</v>
       </c>
       <c r="G19" t="n">
-        <v>1.92351539602507</v>
+        <v>0.420882448478358</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2870018462883</v>
+        <v>0.983666881775332</v>
       </c>
       <c r="I19" t="n">
-        <v>8.40628372808225</v>
+        <v>2.04624337301117</v>
       </c>
       <c r="J19" t="n">
-        <v>7.44187701756375</v>
+        <v>12.0544735052699</v>
       </c>
       <c r="K19" t="n">
-        <v>0.28485518554582</v>
+        <v>0.0382723991609103</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -1193,28 +1193,28 @@
         <v>23</v>
       </c>
       <c r="D20" t="n">
-        <v>10.5942605828937</v>
+        <v>23.8948879076407</v>
       </c>
       <c r="E20" t="n">
-        <v>26.7019328222554</v>
+        <v>56.7921213632364</v>
       </c>
       <c r="F20" t="n">
-        <v>78.2217967283724</v>
+        <v>145.029429284137</v>
       </c>
       <c r="G20" t="n">
-        <v>70.6872847464139</v>
+        <v>135.594730760467</v>
       </c>
       <c r="H20" t="n">
-        <v>170.700611704129</v>
+        <v>287.444401076822</v>
       </c>
       <c r="I20" t="n">
-        <v>345.51034062129</v>
+        <v>741.605917239487</v>
       </c>
       <c r="J20" t="n">
-        <v>150.903640121014</v>
+        <v>250.67825818866</v>
       </c>
       <c r="K20" t="n">
-        <v>0.51835593008654</v>
+        <v>0.578548097198711</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
@@ -1231,28 +1231,28 @@
         <v>23</v>
       </c>
       <c r="D21" t="n">
-        <v>10.2451614535515</v>
+        <v>31.7100181721961</v>
       </c>
       <c r="E21" t="n">
-        <v>15.4171865789763</v>
+        <v>49.8658255245348</v>
       </c>
       <c r="F21" t="n">
-        <v>29.5174199843067</v>
+        <v>97.1637535919033</v>
       </c>
       <c r="G21" t="n">
-        <v>27.8347493454049</v>
+        <v>92.1853163930883</v>
       </c>
       <c r="H21" t="n">
-        <v>53.8210067624044</v>
+        <v>173.751509097307</v>
       </c>
       <c r="I21" t="n">
-        <v>112.657400171349</v>
+        <v>361.678886603138</v>
       </c>
       <c r="J21" t="n">
-        <v>150.903640121014</v>
+        <v>250.67825818866</v>
       </c>
       <c r="K21" t="n">
-        <v>0.195604426511089</v>
+        <v>0.387603433556562</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
@@ -1269,28 +1269,28 @@
         <v>23</v>
       </c>
       <c r="D22" t="n">
-        <v>13.9975179137379</v>
+        <v>1.70654010833097</v>
       </c>
       <c r="E22" t="n">
-        <v>23.1145804653167</v>
+        <v>3.35746473622711</v>
       </c>
       <c r="F22" t="n">
-        <v>43.1644234083344</v>
+        <v>8.48507531262059</v>
       </c>
       <c r="G22" t="n">
-        <v>40.9324474820194</v>
+        <v>7.74917830302371</v>
       </c>
       <c r="H22" t="n">
-        <v>75.6023673570108</v>
+        <v>18.0386687781209</v>
       </c>
       <c r="I22" t="n">
-        <v>135.961345434249</v>
+        <v>38.2024440807715</v>
       </c>
       <c r="J22" t="n">
-        <v>150.903640121014</v>
+        <v>250.67825818866</v>
       </c>
       <c r="K22" t="n">
-        <v>0.286039643402371</v>
+        <v>0.0338484692447269</v>
       </c>
       <c r="L22" t="s">
         <v>15</v>
@@ -1307,28 +1307,28 @@
         <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0159076737707817</v>
+        <v>0.03733797473455</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0411887117548423</v>
+        <v>0.0837595070250401</v>
       </c>
       <c r="F23" t="n">
-        <v>0.123260788725237</v>
+        <v>0.226855927910299</v>
       </c>
       <c r="G23" t="n">
-        <v>0.111822936742078</v>
+        <v>0.210141873076924</v>
       </c>
       <c r="H23" t="n">
-        <v>0.271465268802848</v>
+        <v>0.464642357225904</v>
       </c>
       <c r="I23" t="n">
-        <v>0.618147079859903</v>
+        <v>1.40224074624837</v>
       </c>
       <c r="J23" t="n">
-        <v>0.253063139848504</v>
+        <v>0.453392988051613</v>
       </c>
       <c r="K23" t="n">
-        <v>0.487075236634726</v>
+        <v>0.500351646118696</v>
       </c>
       <c r="L23" t="s">
         <v>15</v>
@@ -1345,28 +1345,28 @@
         <v>24</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0107930101555856</v>
+        <v>0.028480617821441</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0194618376339521</v>
+        <v>0.0697249079110825</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0568983432410709</v>
+        <v>0.21058413021762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0483741003419259</v>
+        <v>0.185218015306858</v>
       </c>
       <c r="H24" t="n">
-        <v>0.143323915225261</v>
+        <v>0.496016804918431</v>
       </c>
       <c r="I24" t="n">
-        <v>0.324879830769111</v>
+        <v>0.986440709225396</v>
       </c>
       <c r="J24" t="n">
-        <v>0.253063139848504</v>
+        <v>0.453392988051613</v>
       </c>
       <c r="K24" t="n">
-        <v>0.224838525575605</v>
+        <v>0.464462697410855</v>
       </c>
       <c r="L24" t="s">
         <v>15</v>
@@ -1383,28 +1383,28 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0220770830567274</v>
+        <v>0.00200886990980005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0346384166062387</v>
+        <v>0.00566258746904616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0729040078821966</v>
+        <v>0.0159529299236943</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0679187080904071</v>
+        <v>0.014179583851554</v>
       </c>
       <c r="H25" t="n">
-        <v>0.139607813056657</v>
+        <v>0.0371773994919379</v>
       </c>
       <c r="I25" t="n">
-        <v>0.277286297766744</v>
+        <v>0.103372342567137</v>
       </c>
       <c r="J25" t="n">
-        <v>0.253063139848504</v>
+        <v>0.453392988051613</v>
       </c>
       <c r="K25" t="n">
-        <v>0.288086237789669</v>
+        <v>0.0351856564704487</v>
       </c>
       <c r="L25" t="s">
         <v>15</v>
@@ -1421,28 +1421,28 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>2.9986331457623</v>
+        <v>6.31937285857968</v>
       </c>
       <c r="E26" t="n">
-        <v>8.77018791891022</v>
+        <v>17.8518437401749</v>
       </c>
       <c r="F26" t="n">
-        <v>31.376687408222</v>
+        <v>54.5757305423266</v>
       </c>
       <c r="G26" t="n">
-        <v>27.98327735308</v>
+        <v>49.7908787992004</v>
       </c>
       <c r="H26" t="n">
-        <v>73.7848792994383</v>
+        <v>120.129353159451</v>
       </c>
       <c r="I26" t="n">
-        <v>208.846631279092</v>
+        <v>394.9458520203</v>
       </c>
       <c r="J26" t="n">
-        <v>55.6307235411322</v>
+        <v>94.8278036220005</v>
       </c>
       <c r="K26" t="n">
-        <v>0.564017244626033</v>
+        <v>0.575524566190255</v>
       </c>
       <c r="L26" t="s">
         <v>15</v>
@@ -1459,28 +1459,28 @@
         <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>1.87444259361286</v>
+        <v>7.45368201323649</v>
       </c>
       <c r="E27" t="n">
-        <v>4.32757800630069</v>
+        <v>14.410368875398</v>
       </c>
       <c r="F27" t="n">
-        <v>10.1861350623281</v>
+        <v>34.6271962320304</v>
       </c>
       <c r="G27" t="n">
-        <v>9.32136588876653</v>
+        <v>31.5743763376169</v>
       </c>
       <c r="H27" t="n">
-        <v>21.31409986206</v>
+        <v>72.362768519078</v>
       </c>
       <c r="I27" t="n">
-        <v>48.0734336902278</v>
+        <v>203.781251942494</v>
       </c>
       <c r="J27" t="n">
-        <v>55.6307235411322</v>
+        <v>94.8278036220005</v>
       </c>
       <c r="K27" t="n">
-        <v>0.183102688836982</v>
+        <v>0.365158686687084</v>
       </c>
       <c r="L27" t="s">
         <v>15</v>
@@ -1497,28 +1497,28 @@
         <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>4.08411708366661</v>
+        <v>0.593869596062023</v>
       </c>
       <c r="E28" t="n">
-        <v>6.79278230709617</v>
+        <v>1.41715369011874</v>
       </c>
       <c r="F28" t="n">
-        <v>14.0679010705821</v>
+        <v>5.62487684764358</v>
       </c>
       <c r="G28" t="n">
-        <v>12.9176424488623</v>
+        <v>4.46519674815355</v>
       </c>
       <c r="H28" t="n">
-        <v>27.0125943582793</v>
+        <v>16.4527775499564</v>
       </c>
       <c r="I28" t="n">
-        <v>47.4939897132792</v>
+        <v>44.2287538330728</v>
       </c>
       <c r="J28" t="n">
-        <v>55.6307235411322</v>
+        <v>94.8278036220005</v>
       </c>
       <c r="K28" t="n">
-        <v>0.252880066536984</v>
+        <v>0.0593167471226612</v>
       </c>
       <c r="L28" t="s">
         <v>15</v>
@@ -1535,28 +1535,28 @@
         <v>14</v>
       </c>
       <c r="D29" t="n">
-        <v>73800.7036636472</v>
+        <v>31348.5674672831</v>
       </c>
       <c r="E29" t="n">
-        <v>133311.161031641</v>
+        <v>62481.3946142455</v>
       </c>
       <c r="F29" t="n">
-        <v>257770.226467143</v>
+        <v>140531.882210402</v>
       </c>
       <c r="G29" t="n">
-        <v>243838.054531673</v>
+        <v>130917.998996826</v>
       </c>
       <c r="H29" t="n">
-        <v>466227.852148357</v>
+        <v>277582.909366562</v>
       </c>
       <c r="I29" t="n">
-        <v>1371074.32432904</v>
+        <v>678537.135223295</v>
       </c>
       <c r="J29" t="n">
-        <v>424790.109327341</v>
+        <v>263190.682848923</v>
       </c>
       <c r="K29" t="n">
-        <v>0.606817863239153</v>
+        <v>0.533954624416055</v>
       </c>
       <c r="L29" t="s">
         <v>15</v>
@@ -1573,28 +1573,28 @@
         <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>45036.6679319129</v>
+        <v>16079.9860267862</v>
       </c>
       <c r="E30" t="n">
-        <v>77645.7965583855</v>
+        <v>24342.3167179523</v>
       </c>
       <c r="F30" t="n">
-        <v>147728.817122451</v>
+        <v>45649.911832701</v>
       </c>
       <c r="G30" t="n">
-        <v>140252.130252473</v>
+        <v>42951.6243533242</v>
       </c>
       <c r="H30" t="n">
-        <v>263017.223872435</v>
+        <v>82552.6019844531</v>
       </c>
       <c r="I30" t="n">
-        <v>519478.990698252</v>
+        <v>149661.722937752</v>
       </c>
       <c r="J30" t="n">
-        <v>424790.109327341</v>
+        <v>263190.682848923</v>
       </c>
       <c r="K30" t="n">
-        <v>0.34776896608158</v>
+        <v>0.173448054234143</v>
       </c>
       <c r="L30" t="s">
         <v>15</v>
@@ -1611,28 +1611,28 @@
         <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>4142.32586437807</v>
+        <v>28993.658635189</v>
       </c>
       <c r="E31" t="n">
-        <v>8047.11472739321</v>
+        <v>51015.8780506557</v>
       </c>
       <c r="F31" t="n">
-        <v>19291.065737747</v>
+        <v>77008.8888058204</v>
       </c>
       <c r="G31" t="n">
-        <v>17750.3026888308</v>
+        <v>74914.80325425</v>
       </c>
       <c r="H31" t="n">
-        <v>39622.4250490648</v>
+        <v>113849.396072585</v>
       </c>
       <c r="I31" t="n">
-        <v>80030.6460706342</v>
+        <v>198670.155877895</v>
       </c>
       <c r="J31" t="n">
-        <v>424790.109327341</v>
+        <v>263190.682848923</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0454131706792669</v>
+        <v>0.292597321349803</v>
       </c>
       <c r="L31" t="s">
         <v>15</v>
@@ -1649,28 +1649,28 @@
         <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>6664.47124369142</v>
+        <v>3273.00759524082</v>
       </c>
       <c r="E32" t="n">
-        <v>14211.2944933744</v>
+        <v>6715.84574919001</v>
       </c>
       <c r="F32" t="n">
-        <v>27345.061627259</v>
+        <v>14579.7440254629</v>
       </c>
       <c r="G32" t="n">
-        <v>26017.3561610382</v>
+        <v>13614.023741886</v>
       </c>
       <c r="H32" t="n">
-        <v>48501.5523278148</v>
+        <v>28479.9129126315</v>
       </c>
       <c r="I32" t="n">
-        <v>120997.000387249</v>
+        <v>75399.1384935159</v>
       </c>
       <c r="J32" t="n">
-        <v>42615.473019633</v>
+        <v>28081.4603354355</v>
       </c>
       <c r="K32" t="n">
-        <v>0.641669790093872</v>
+        <v>0.519194651962775</v>
       </c>
       <c r="L32" t="s">
         <v>15</v>
@@ -1687,28 +1687,28 @@
         <v>18</v>
       </c>
       <c r="D33" t="n">
-        <v>3487.31974701425</v>
+        <v>1189.71931360359</v>
       </c>
       <c r="E33" t="n">
-        <v>6734.01109683064</v>
+        <v>2082.99080950909</v>
       </c>
       <c r="F33" t="n">
-        <v>12880.3984517847</v>
+        <v>3953.36580577989</v>
       </c>
       <c r="G33" t="n">
-        <v>12239.4716289256</v>
+        <v>3715.86857104909</v>
       </c>
       <c r="H33" t="n">
-        <v>22865.8741935458</v>
+        <v>7148.36396777509</v>
       </c>
       <c r="I33" t="n">
-        <v>42671.1249092099</v>
+        <v>14234.073627815</v>
       </c>
       <c r="J33" t="n">
-        <v>42615.473019633</v>
+        <v>28081.4603354355</v>
       </c>
       <c r="K33" t="n">
-        <v>0.302246990097956</v>
+        <v>0.140782059001084</v>
       </c>
       <c r="L33" t="s">
         <v>15</v>
@@ -1725,28 +1725,28 @@
         <v>18</v>
       </c>
       <c r="D34" t="n">
-        <v>426.316318325827</v>
+        <v>4042.47237670937</v>
       </c>
       <c r="E34" t="n">
-        <v>895.561522774901</v>
+        <v>6016.88620918058</v>
       </c>
       <c r="F34" t="n">
-        <v>2390.01294058931</v>
+        <v>9548.35050419273</v>
       </c>
       <c r="G34" t="n">
-        <v>2142.20843128957</v>
+        <v>9252.67472231841</v>
       </c>
       <c r="H34" t="n">
-        <v>5235.46454760413</v>
+        <v>14751.8867698068</v>
       </c>
       <c r="I34" t="n">
-        <v>14373.3001665032</v>
+        <v>22482.789057143</v>
       </c>
       <c r="J34" t="n">
-        <v>42615.473019633</v>
+        <v>28081.4603354355</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0560832198081722</v>
+        <v>0.340023289036141</v>
       </c>
       <c r="L34" t="s">
         <v>15</v>
@@ -1763,28 +1763,28 @@
         <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>31.0706745108488</v>
+        <v>14.7249962499931</v>
       </c>
       <c r="E35" t="n">
-        <v>74.4429955516984</v>
+        <v>35.364754665472</v>
       </c>
       <c r="F35" t="n">
-        <v>187.187359131091</v>
+        <v>100.440237494258</v>
       </c>
       <c r="G35" t="n">
-        <v>174.902142094069</v>
+        <v>91.3082159479098</v>
       </c>
       <c r="H35" t="n">
-        <v>375.647595913906</v>
+        <v>216.593390442765</v>
       </c>
       <c r="I35" t="n">
-        <v>770.335364610495</v>
+        <v>481.911280692552</v>
       </c>
       <c r="J35" t="n">
-        <v>289.412655531811</v>
+        <v>189.509931588921</v>
       </c>
       <c r="K35" t="n">
-        <v>0.646783599656775</v>
+        <v>0.529999861496073</v>
       </c>
       <c r="L35" t="s">
         <v>15</v>
@@ -1801,28 +1801,28 @@
         <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>10.3444194119351</v>
+        <v>3.97439689772188</v>
       </c>
       <c r="E36" t="n">
-        <v>26.6847384985026</v>
+        <v>7.75082992709319</v>
       </c>
       <c r="F36" t="n">
-        <v>90.9636195325554</v>
+        <v>27.7060256217529</v>
       </c>
       <c r="G36" t="n">
-        <v>73.1276979277586</v>
+        <v>21.3750653276604</v>
       </c>
       <c r="H36" t="n">
-        <v>249.924052289649</v>
+        <v>82.0418225148736</v>
       </c>
       <c r="I36" t="n">
-        <v>574.239254512656</v>
+        <v>200.617029133678</v>
       </c>
       <c r="J36" t="n">
-        <v>289.412655531811</v>
+        <v>189.509931588921</v>
       </c>
       <c r="K36" t="n">
-        <v>0.314304221995424</v>
+        <v>0.14619827778658</v>
       </c>
       <c r="L36" t="s">
         <v>15</v>
@@ -1839,28 +1839,28 @@
         <v>19</v>
       </c>
       <c r="D37" t="n">
-        <v>1.63139830768301</v>
+        <v>18.2588585670749</v>
       </c>
       <c r="E37" t="n">
-        <v>3.7237879960876</v>
+        <v>31.0296084256711</v>
       </c>
       <c r="F37" t="n">
-        <v>11.2616768681647</v>
+        <v>61.3636684729096</v>
       </c>
       <c r="G37" t="n">
-        <v>9.79812766912163</v>
+        <v>58.4766083675203</v>
       </c>
       <c r="H37" t="n">
-        <v>27.5738648697182</v>
+        <v>107.541528887762</v>
       </c>
       <c r="I37" t="n">
-        <v>93.6950721409299</v>
+        <v>171.05806015824</v>
       </c>
       <c r="J37" t="n">
-        <v>289.412655531811</v>
+        <v>189.509931588921</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0389121783478017</v>
+        <v>0.323801860717347</v>
       </c>
       <c r="L37" t="s">
         <v>15</v>
@@ -1877,28 +1877,28 @@
         <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>4.91132484268978</v>
+        <v>2.15323348240575</v>
       </c>
       <c r="E38" t="n">
-        <v>12.7273736573466</v>
+        <v>6.72174590456064</v>
       </c>
       <c r="F38" t="n">
-        <v>43.5635610872204</v>
+        <v>25.5265312430685</v>
       </c>
       <c r="G38" t="n">
-        <v>39.334394602225</v>
+        <v>22.6309494445615</v>
       </c>
       <c r="H38" t="n">
-        <v>96.8244301724243</v>
+        <v>61.1810046594392</v>
       </c>
       <c r="I38" t="n">
-        <v>267.32390115676</v>
+        <v>186.174436659413</v>
       </c>
       <c r="J38" t="n">
-        <v>117.829417977174</v>
+        <v>55.7159791059708</v>
       </c>
       <c r="K38" t="n">
-        <v>0.369717188076576</v>
+        <v>0.45815458424445</v>
       </c>
       <c r="L38" t="s">
         <v>15</v>
@@ -1915,28 +1915,28 @@
         <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>14.8011808953116</v>
+        <v>5.31614151680444</v>
       </c>
       <c r="E39" t="n">
-        <v>30.0919489262042</v>
+        <v>8.96761991838818</v>
       </c>
       <c r="F39" t="n">
-        <v>73.4200423908886</v>
+        <v>22.3166983237734</v>
       </c>
       <c r="G39" t="n">
-        <v>67.2153808323509</v>
+        <v>20.1357273925546</v>
       </c>
       <c r="H39" t="n">
-        <v>150.929089796856</v>
+        <v>48.7310103656943</v>
       </c>
       <c r="I39" t="n">
-        <v>436.618321294313</v>
+        <v>107.997744512428</v>
       </c>
       <c r="J39" t="n">
-        <v>117.829417977174</v>
+        <v>55.7159791059708</v>
       </c>
       <c r="K39" t="n">
-        <v>0.623104515420007</v>
+        <v>0.400543949543227</v>
       </c>
       <c r="L39" t="s">
         <v>15</v>
@@ -1953,28 +1953,28 @@
         <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>0.151606146093451</v>
+        <v>2.20496611013475</v>
       </c>
       <c r="E40" t="n">
-        <v>0.314647786490862</v>
+        <v>3.85988967082343</v>
       </c>
       <c r="F40" t="n">
-        <v>0.845814499065174</v>
+        <v>7.87274953912884</v>
       </c>
       <c r="G40" t="n">
-        <v>0.753426141929563</v>
+        <v>7.34722008095861</v>
       </c>
       <c r="H40" t="n">
-        <v>1.92953888871402</v>
+        <v>14.8856665058557</v>
       </c>
       <c r="I40" t="n">
-        <v>5.8299717519474</v>
+        <v>36.7494065107136</v>
       </c>
       <c r="J40" t="n">
-        <v>117.829417977174</v>
+        <v>55.7159791059708</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0071782965034167</v>
+        <v>0.141301466212323</v>
       </c>
       <c r="L40" t="s">
         <v>15</v>
@@ -1991,28 +1991,28 @@
         <v>21</v>
       </c>
       <c r="D41" t="n">
-        <v>0.848502024295567</v>
+        <v>0.294600174354255</v>
       </c>
       <c r="E41" t="n">
-        <v>2.05172064470894</v>
+        <v>1.03488590584514</v>
       </c>
       <c r="F41" t="n">
-        <v>6.05275634289958</v>
+        <v>3.11673579430496</v>
       </c>
       <c r="G41" t="n">
-        <v>5.54872653819021</v>
+        <v>2.86552407765207</v>
       </c>
       <c r="H41" t="n">
-        <v>12.8008406382214</v>
+        <v>6.70945017844107</v>
       </c>
       <c r="I41" t="n">
-        <v>28.0745182438048</v>
+        <v>13.5428419310425</v>
       </c>
       <c r="J41" t="n">
-        <v>9.32189721493088</v>
+        <v>6.57223408591992</v>
       </c>
       <c r="K41" t="n">
-        <v>0.649305200791624</v>
+        <v>0.474227751714158</v>
       </c>
       <c r="L41" t="s">
         <v>15</v>
@@ -2029,28 +2029,28 @@
         <v>21</v>
       </c>
       <c r="D42" t="n">
-        <v>0.627777106129543</v>
+        <v>0.196971132685042</v>
       </c>
       <c r="E42" t="n">
-        <v>1.20378371349211</v>
+        <v>0.366928480410988</v>
       </c>
       <c r="F42" t="n">
-        <v>2.67848008612031</v>
+        <v>0.782828287671288</v>
       </c>
       <c r="G42" t="n">
-        <v>2.47325045348622</v>
+        <v>0.712385215242529</v>
       </c>
       <c r="H42" t="n">
-        <v>5.36614122289849</v>
+        <v>1.61032737946342</v>
       </c>
       <c r="I42" t="n">
-        <v>13.2730401242038</v>
+        <v>3.28894176198736</v>
       </c>
       <c r="J42" t="n">
-        <v>9.32189721493088</v>
+        <v>6.57223408591992</v>
       </c>
       <c r="K42" t="n">
-        <v>0.287332076761175</v>
+        <v>0.119111443298769</v>
       </c>
       <c r="L42" t="s">
         <v>15</v>
@@ -2067,28 +2067,28 @@
         <v>21</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0753961654163235</v>
+        <v>0.560130584609778</v>
       </c>
       <c r="E43" t="n">
-        <v>0.169063717617297</v>
+        <v>1.07427106301039</v>
       </c>
       <c r="F43" t="n">
-        <v>0.590660785910997</v>
+        <v>2.67267000394368</v>
       </c>
       <c r="G43" t="n">
-        <v>0.507498844543736</v>
+        <v>2.39780329023742</v>
       </c>
       <c r="H43" t="n">
-        <v>1.51845813546085</v>
+        <v>5.64293451902915</v>
       </c>
       <c r="I43" t="n">
-        <v>4.12323529203958</v>
+        <v>10.1695565830997</v>
       </c>
       <c r="J43" t="n">
-        <v>9.32189721493088</v>
+        <v>6.57223408591992</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0633627224472005</v>
+        <v>0.406660804987073</v>
       </c>
       <c r="L43" t="s">
         <v>15</v>
@@ -2105,28 +2105,28 @@
         <v>22</v>
       </c>
       <c r="D44" t="n">
-        <v>1.4371598972943</v>
+        <v>0.602888612005335</v>
       </c>
       <c r="E44" t="n">
-        <v>2.79979873146447</v>
+        <v>1.35176045597077</v>
       </c>
       <c r="F44" t="n">
-        <v>7.51520392645367</v>
+        <v>4.0809347707542</v>
       </c>
       <c r="G44" t="n">
-        <v>6.91590121473379</v>
+        <v>3.69114984063146</v>
       </c>
       <c r="H44" t="n">
-        <v>15.247896921364</v>
+        <v>9.11500132903954</v>
       </c>
       <c r="I44" t="n">
-        <v>52.9626862898159</v>
+        <v>20.879969519778</v>
       </c>
       <c r="J44" t="n">
-        <v>12.0544735052699</v>
+        <v>7.44187701756375</v>
       </c>
       <c r="K44" t="n">
-        <v>0.623436927640864</v>
+        <v>0.548374390106514</v>
       </c>
       <c r="L44" t="s">
         <v>15</v>
@@ -2143,28 +2143,28 @@
         <v>22</v>
       </c>
       <c r="D45" t="n">
-        <v>1.08257913678541</v>
+        <v>0.259455623760236</v>
       </c>
       <c r="E45" t="n">
-        <v>1.91276282622576</v>
+        <v>0.59187321426074</v>
       </c>
       <c r="F45" t="n">
-        <v>4.07791595714794</v>
+        <v>1.24108498816225</v>
       </c>
       <c r="G45" t="n">
-        <v>3.78912944228417</v>
+        <v>1.14273187799155</v>
       </c>
       <c r="H45" t="n">
-        <v>7.79360678533933</v>
+        <v>2.44822409124576</v>
       </c>
       <c r="I45" t="n">
-        <v>15.7956106294783</v>
+        <v>4.84496551712718</v>
       </c>
       <c r="J45" t="n">
-        <v>12.0544735052699</v>
+        <v>7.44187701756375</v>
       </c>
       <c r="K45" t="n">
-        <v>0.338290673198226</v>
+        <v>0.166770424347666</v>
       </c>
       <c r="L45" t="s">
         <v>15</v>
@@ -2181,28 +2181,28 @@
         <v>22</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0669814767542231</v>
+        <v>0.678701712112175</v>
       </c>
       <c r="E46" t="n">
-        <v>0.17612458086947</v>
+        <v>1.07036099855137</v>
       </c>
       <c r="F46" t="n">
-        <v>0.461353621668308</v>
+        <v>2.11985725864729</v>
       </c>
       <c r="G46" t="n">
-        <v>0.420882448478358</v>
+        <v>1.92351539602507</v>
       </c>
       <c r="H46" t="n">
-        <v>0.983666881775332</v>
+        <v>4.2870018462883</v>
       </c>
       <c r="I46" t="n">
-        <v>2.04624337301117</v>
+        <v>8.40628372808225</v>
       </c>
       <c r="J46" t="n">
-        <v>12.0544735052699</v>
+        <v>7.44187701756375</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0382723991609103</v>
+        <v>0.28485518554582</v>
       </c>
       <c r="L46" t="s">
         <v>15</v>
@@ -2219,28 +2219,28 @@
         <v>23</v>
       </c>
       <c r="D47" t="n">
-        <v>23.8948879076407</v>
+        <v>10.5942605828937</v>
       </c>
       <c r="E47" t="n">
-        <v>56.7921213632364</v>
+        <v>26.7019328222554</v>
       </c>
       <c r="F47" t="n">
-        <v>145.029429284137</v>
+        <v>78.2217967283724</v>
       </c>
       <c r="G47" t="n">
-        <v>135.594730760467</v>
+        <v>70.6872847464139</v>
       </c>
       <c r="H47" t="n">
-        <v>287.444401076822</v>
+        <v>170.700611704129</v>
       </c>
       <c r="I47" t="n">
-        <v>741.605917239487</v>
+        <v>345.51034062129</v>
       </c>
       <c r="J47" t="n">
-        <v>250.67825818866</v>
+        <v>150.903640121014</v>
       </c>
       <c r="K47" t="n">
-        <v>0.578548097198711</v>
+        <v>0.51835593008654</v>
       </c>
       <c r="L47" t="s">
         <v>15</v>
@@ -2257,28 +2257,28 @@
         <v>23</v>
       </c>
       <c r="D48" t="n">
-        <v>31.7100181721961</v>
+        <v>10.2451614535515</v>
       </c>
       <c r="E48" t="n">
-        <v>49.8658255245348</v>
+        <v>15.4171865789763</v>
       </c>
       <c r="F48" t="n">
-        <v>97.1637535919033</v>
+        <v>29.5174199843067</v>
       </c>
       <c r="G48" t="n">
-        <v>92.1853163930883</v>
+        <v>27.8347493454049</v>
       </c>
       <c r="H48" t="n">
-        <v>173.751509097307</v>
+        <v>53.8210067624044</v>
       </c>
       <c r="I48" t="n">
-        <v>361.678886603138</v>
+        <v>112.657400171349</v>
       </c>
       <c r="J48" t="n">
-        <v>250.67825818866</v>
+        <v>150.903640121014</v>
       </c>
       <c r="K48" t="n">
-        <v>0.387603433556562</v>
+        <v>0.195604426511089</v>
       </c>
       <c r="L48" t="s">
         <v>15</v>
@@ -2295,28 +2295,28 @@
         <v>23</v>
       </c>
       <c r="D49" t="n">
-        <v>1.70654010833097</v>
+        <v>13.9975179137379</v>
       </c>
       <c r="E49" t="n">
-        <v>3.35746473622711</v>
+        <v>23.1145804653167</v>
       </c>
       <c r="F49" t="n">
-        <v>8.48507531262059</v>
+        <v>43.1644234083344</v>
       </c>
       <c r="G49" t="n">
-        <v>7.74917830302371</v>
+        <v>40.9324474820194</v>
       </c>
       <c r="H49" t="n">
-        <v>18.0386687781209</v>
+        <v>75.6023673570108</v>
       </c>
       <c r="I49" t="n">
-        <v>38.2024440807715</v>
+        <v>135.961345434249</v>
       </c>
       <c r="J49" t="n">
-        <v>250.67825818866</v>
+        <v>150.903640121014</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0338484692447269</v>
+        <v>0.286039643402371</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
@@ -2333,28 +2333,28 @@
         <v>24</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03733797473455</v>
+        <v>0.0159076737707817</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0837595070250401</v>
+        <v>0.0411887117548423</v>
       </c>
       <c r="F50" t="n">
-        <v>0.226855927910299</v>
+        <v>0.123260788725237</v>
       </c>
       <c r="G50" t="n">
-        <v>0.210141873076924</v>
+        <v>0.111822936742078</v>
       </c>
       <c r="H50" t="n">
-        <v>0.464642357225904</v>
+        <v>0.271465268802848</v>
       </c>
       <c r="I50" t="n">
-        <v>1.40224074624837</v>
+        <v>0.618147079859903</v>
       </c>
       <c r="J50" t="n">
-        <v>0.453392988051613</v>
+        <v>0.253063139848504</v>
       </c>
       <c r="K50" t="n">
-        <v>0.500351646118696</v>
+        <v>0.487075236634726</v>
       </c>
       <c r="L50" t="s">
         <v>15</v>
@@ -2371,28 +2371,28 @@
         <v>24</v>
       </c>
       <c r="D51" t="n">
-        <v>0.028480617821441</v>
+        <v>0.0107930101555856</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0697249079110825</v>
+        <v>0.0194618376339521</v>
       </c>
       <c r="F51" t="n">
-        <v>0.21058413021762</v>
+        <v>0.0568983432410709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.185218015306858</v>
+        <v>0.0483741003419259</v>
       </c>
       <c r="H51" t="n">
-        <v>0.496016804918431</v>
+        <v>0.143323915225261</v>
       </c>
       <c r="I51" t="n">
-        <v>0.986440709225396</v>
+        <v>0.324879830769111</v>
       </c>
       <c r="J51" t="n">
-        <v>0.453392988051613</v>
+        <v>0.253063139848504</v>
       </c>
       <c r="K51" t="n">
-        <v>0.464462697410855</v>
+        <v>0.224838525575605</v>
       </c>
       <c r="L51" t="s">
         <v>15</v>
@@ -2409,28 +2409,28 @@
         <v>24</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00200886990980005</v>
+        <v>0.0220770830567274</v>
       </c>
       <c r="E52" t="n">
-        <v>0.00566258746904616</v>
+        <v>0.0346384166062387</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0159529299236943</v>
+        <v>0.0729040078821966</v>
       </c>
       <c r="G52" t="n">
-        <v>0.014179583851554</v>
+        <v>0.0679187080904071</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0371773994919379</v>
+        <v>0.139607813056657</v>
       </c>
       <c r="I52" t="n">
-        <v>0.103372342567137</v>
+        <v>0.277286297766744</v>
       </c>
       <c r="J52" t="n">
-        <v>0.453392988051613</v>
+        <v>0.253063139848504</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0351856564704487</v>
+        <v>0.288086237789669</v>
       </c>
       <c r="L52" t="s">
         <v>15</v>
@@ -2447,28 +2447,28 @@
         <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>6.31937285857968</v>
+        <v>2.9986331457623</v>
       </c>
       <c r="E53" t="n">
-        <v>17.8518437401749</v>
+        <v>8.77018791891022</v>
       </c>
       <c r="F53" t="n">
-        <v>54.5757305423266</v>
+        <v>31.376687408222</v>
       </c>
       <c r="G53" t="n">
-        <v>49.7908787992004</v>
+        <v>27.98327735308</v>
       </c>
       <c r="H53" t="n">
-        <v>120.129353159451</v>
+        <v>73.7848792994383</v>
       </c>
       <c r="I53" t="n">
-        <v>394.9458520203</v>
+        <v>208.846631279092</v>
       </c>
       <c r="J53" t="n">
-        <v>94.8278036220005</v>
+        <v>55.6307235411322</v>
       </c>
       <c r="K53" t="n">
-        <v>0.575524566190255</v>
+        <v>0.564017244626033</v>
       </c>
       <c r="L53" t="s">
         <v>15</v>
@@ -2485,28 +2485,28 @@
         <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>7.45368201323649</v>
+        <v>1.87444259361286</v>
       </c>
       <c r="E54" t="n">
-        <v>14.410368875398</v>
+        <v>4.32757800630069</v>
       </c>
       <c r="F54" t="n">
-        <v>34.6271962320304</v>
+        <v>10.1861350623281</v>
       </c>
       <c r="G54" t="n">
-        <v>31.5743763376169</v>
+        <v>9.32136588876653</v>
       </c>
       <c r="H54" t="n">
-        <v>72.362768519078</v>
+        <v>21.31409986206</v>
       </c>
       <c r="I54" t="n">
-        <v>203.781251942494</v>
+        <v>48.0734336902278</v>
       </c>
       <c r="J54" t="n">
-        <v>94.8278036220005</v>
+        <v>55.6307235411322</v>
       </c>
       <c r="K54" t="n">
-        <v>0.365158686687084</v>
+        <v>0.183102688836982</v>
       </c>
       <c r="L54" t="s">
         <v>15</v>
@@ -2523,28 +2523,28 @@
         <v>25</v>
       </c>
       <c r="D55" t="n">
-        <v>0.593869596062023</v>
+        <v>4.08411708366661</v>
       </c>
       <c r="E55" t="n">
-        <v>1.41715369011874</v>
+        <v>6.79278230709617</v>
       </c>
       <c r="F55" t="n">
-        <v>5.62487684764358</v>
+        <v>14.0679010705821</v>
       </c>
       <c r="G55" t="n">
-        <v>4.46519674815355</v>
+        <v>12.9176424488623</v>
       </c>
       <c r="H55" t="n">
-        <v>16.4527775499564</v>
+        <v>27.0125943582793</v>
       </c>
       <c r="I55" t="n">
-        <v>44.2287538330728</v>
+        <v>47.4939897132792</v>
       </c>
       <c r="J55" t="n">
-        <v>94.8278036220005</v>
+        <v>55.6307235411322</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0593167471226612</v>
+        <v>0.252880066536984</v>
       </c>
       <c r="L55" t="s">
         <v>15</v>
